--- a/App/yh/内部接口文档.xlsx
+++ b/App/yh/内部接口文档.xlsx
@@ -42,7 +42,7 @@
     <t>失败响应实例</t>
   </si>
   <si>
-    <t>接口域名 http://192.168.43.128/git/php_/project/</t>
+    <t>接口域名 http://121.196.222.40/yh/</t>
   </si>
   <si>
     <t>所有接口访问频率在 30/60s</t>
@@ -220,9 +220,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -242,23 +242,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,15 +287,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,15 +302,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,52 +372,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,55 +395,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,127 +551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,55 +589,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +628,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1199,8 +1199,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/App/yh/内部接口文档.xlsx
+++ b/App/yh/内部接口文档.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="商户" sheetId="1" r:id="rId1"/>
+    <sheet name="管理" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>接口地址</t>
   </si>
@@ -79,7 +79,7 @@
     <t>/user/reg</t>
   </si>
   <si>
-    <t>注册( 邮件发送 )
+    <t>商户注册( 邮件发送 )
 成功响应将会发送邮件到邮箱</t>
   </si>
   <si>
@@ -104,7 +104,7 @@
     <t>/user/setpasswd</t>
   </si>
   <si>
-    <t>设置密码 (写入数据库)</t>
+    <t>商户设置密码 (写入数据库)</t>
   </si>
   <si>
     <t>email(注册邮箱)
@@ -128,7 +128,7 @@
     <t>/user/forget</t>
   </si>
   <si>
-    <t>忘记密码( 邮件发送 )</t>
+    <t>商户忘记密码( 邮件发送 )</t>
   </si>
   <si>
     <t>email(重置密码的邮箱)
@@ -148,7 +148,7 @@
     <t>/user/resetpasswd</t>
   </si>
   <si>
-    <t>忘记密码 设置密码</t>
+    <t>商户忘记密码 设置密码</t>
   </si>
   <si>
     <t>email(用户邮箱)
@@ -169,7 +169,7 @@
     <t>/user/login</t>
   </si>
   <si>
-    <t>用户登入 ( 获取token )</t>
+    <t>商户登入 ( 获取token )</t>
   </si>
   <si>
     <t>email(注册邮箱)
@@ -199,7 +199,17 @@
     <t>/user/token</t>
   </si>
   <si>
-    <t>令牌以旧换新( 重置有效期 )</t>
+    <r>
+      <t>商户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>令牌以旧换新( 重置有效期 )</t>
+    </r>
   </si>
   <si>
     <t>返回新token,原token失效</t>
@@ -213,6 +223,150 @@
   </si>
   <si>
     <t>{code: 0, msg: "token已失效"}</t>
+  </si>
+  <si>
+    <t>/merchant</t>
+  </si>
+  <si>
+    <t>商户查询自己商户信息</t>
+  </si>
+  <si>
+    <t>/merchant?
+timestamp=1504704308&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUFwcEEV5AFQE_GnVzX08VIGhaDE9jDHx5V3Z8DWMMFjgcZFYTUQlXdTdwdWJSQlcqS1EADlUzdAAXGxsWXFoXAUcTD0QUFUdDF1RNTUIaW1cUFhQATwtcWEEVA1cVGwkFQEVqClleDF48XEkaCwtTVQoGV1QAXw0aF1tYFk1mCQtUWFs5V01HCkEHCQkGFVFfFQRSQQRXAwQADQlXGxVHB0FUVBJTXTpRFxcDGgMIUFEVBF1MBlAZBAQNC1YDDFFGHxNAFlJYEVUHalhMEwJDVAgFU0wGXxQGAxcLVAMLUV4DAxdKFE0KWwZbZktFWRMSZ0ANDFNEAwcABw1SCQ1WVAFM&amp;sign=9374554c8a9df8adb53a830988aa6c9a</t>
+  </si>
+  <si>
+    <t>商户新增自己商户信息</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;商户名称&lt;/span&gt;&lt;input type="text" name="merchant_name"  value="深圳测试公司"/&gt;&lt;br&gt;
+&lt;span&gt;商户网址&lt;/span&gt;&lt;input type="text" name="merchant_website"  value="http://www.baidu.com/"/&gt;&lt;br&gt;
+&lt;span&gt;网址备案号&lt;/span&gt;&lt;input type="text" name="merchant_website_site_number"  value="京ICP证030173号-1"/&gt;&lt;br&gt;
+&lt;span&gt;组织机构代码原件&lt;/span&gt;&lt;input type="file" name="organization_file"/&gt;&lt;br&gt;
+&lt;span&gt;营业执照原件&lt;/span&gt;&lt;input type="file" name="license_file" /&gt;&lt;br&gt;
+&lt;span&gt;营业执照编码&lt;/span&gt;&lt;input type="text" name="license_code"  value="330521000062738"/&gt;&lt;br&gt;
+&lt;span&gt;营业执照地址&lt;/span&gt;&lt;input type="text" name="license_address"  value="深圳南山区某街道"/&gt;&lt;br&gt;
+&lt;span&gt;营业执照营业范围&lt;/span&gt;&lt;input type="text" name="license_range"  value="计算机软硬件开发销售，计算机、电子、生物、医药、汽车技术领域内的四技服务，生物工程及生物制品研制、开发、销售，整流器生产、开发，计算机网络工程 ，电脑网络软件开发"/&gt;&lt;br&gt;
+&lt;span&gt;实际营业范围&lt;/span&gt;&lt;input type="text" name="business_range"  value="计算机软硬件开发销售，计算机、电子、生物、医药、汽车技术领域内的四技服务"/&gt;&lt;br&gt;
+&lt;span&gt;实际营业地址&lt;/span&gt;&lt;input type="text" name="business_address"  value="深圳南山区某街道某写字楼18楼"/&gt;&lt;br&gt;
+&lt;span&gt;法人姓名&lt;/span&gt;&lt;input type="text" name="corporation_name"  value="法人" /&gt;&lt;br&gt;
+&lt;span&gt;法人国籍&lt;/span&gt;&lt;input type="text" name="corporation_country" value="中国" /&gt;&lt;br&gt;
+&lt;span&gt;法人性别&lt;/span&gt;&lt;select name="corporation_sex"&gt;&lt;option value="1"&gt;男&lt;/option&gt;&lt;option value="2"&gt;女&lt;/option&gt;&lt;/select&gt;&lt;br&gt;
+&lt;span&gt;法人证件类型&lt;/span&gt;&lt;select name="corporation_identification_type"&gt;&lt;option value="1"&gt;身份证&lt;/option&gt;&lt;option value="2"&gt;军官证&lt;/option&gt;&lt;/select&gt;&lt;br&gt;
+&lt;span&gt;法人证件号码&lt;/span&gt;&lt;input type="text" name="corporation_identification_number"  value="123411198212131468" /&gt;&lt;br&gt;
+&lt;span&gt;法人证件有效期&lt;/span&gt;&lt;input type="datetime-local" name="corporation_identification_validity" value="2028-11-11T00:00:00" /&gt;&lt;br&gt;
+&lt;span&gt;法人联系方式&lt;/span&gt;&lt;input type="text" name="corporation_phone"  value="15536487596"/&gt;&lt;br&gt;
+&lt;span&gt;授权人姓名&lt;/span&gt;&lt;input type="text" name="authorizer_name"  value="授权人" /&gt;&lt;br&gt;
+&lt;span&gt;授权人国籍&lt;/span&gt;&lt;input type="text" name="authorizer_country" value="意大利" /&gt;&lt;br&gt;
+&lt;span&gt;授权人性别&lt;/span&gt;&lt;select name="authorizer_sex"&gt;&lt;option value="1"&gt;男&lt;/option&gt;&lt;option value="2"&gt;女&lt;/option&gt;&lt;/select&gt;&lt;br&gt;
+&lt;span&gt;授权人证件类型&lt;/span&gt;&lt;select name="authorizer_identification_type"&gt;&lt;option value="1"&gt;身份证&lt;/option&gt;&lt;option value="2"&gt;军官证&lt;/option&gt;&lt;/select&gt;&lt;br&gt;
+&lt;span&gt;授权人证件号码&lt;/span&gt;&lt;input type="text" name="authorizer_identification_number"  value="333411198212135552" /&gt;&lt;br&gt;
+&lt;span&gt;授权人证件有效期&lt;/span&gt;&lt;input type="datetime-local" name="authorizer_identification_validity" value="2022-02-01T00:00:00" /&gt;&lt;br&gt;
+&lt;span&gt;授权人联系方式&lt;/span&gt;&lt;input type="text" name="authorizer_phone"  value="15536482222"/&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>成功响应code为1</t>
+  </si>
+  <si>
+    <t>merchant_name(商户名称,不可重复)
+organization_file(组织机构代码原件)与license_file(营业执照原件)是上传的文件, 不参与签名</t>
+  </si>
+  <si>
+    <t>{"code":1,"data":"0"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"SQLSTATE[23000]: Integrity constraint violation: 1062 Duplicate entry '100' for key 'PRIMARY'"}</t>
+  </si>
+  <si>
+    <t>商户修改自己商户信息</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"fail!"}</t>
+  </si>
+  <si>
+    <t>商户删除自己商户信息</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>/merchant
+timestamp=1504704308&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUFwcEEV5AFQE_GnVzX08VIGhaDE9jDHx5V3Z8DWMMFjgcZFYTUQlXdTdwdWJSQlcqS1EADlUzdAAXGxsWXFoXAUcTD0QUFUdDF1RNTUIaW1cUFhQATwtcWEEVA1cVGwkFQEVqClleDF48XEkaCwtTVQoGV1QAXw0aF1tYFk1mCQtUWFs5V01HCkEHCQkGFVFfFQRSQQRXAwQADQlXGxVHB0FUVBJTXTpRFxcDGgMIUFEVBF1MBlAZBAQNC1YDDFFGHxNAFlJYEVUHalhMEwJDVAgFU0wGXxQGAxcLVAMLUV4DAxdKFE0KWwZbZktFWRMSZ0ANDFNEAwcABw1SCQ1WVAFM&amp;sign=9374554c8a9df8adb53a830988aa6c9a</t>
+  </si>
+  <si>
+    <t>{"code":1,"data":"1"}</t>
+  </si>
+  <si>
+    <t>/admin/login</t>
+  </si>
+  <si>
+    <t>管理员登入 ( 获取token )</t>
+  </si>
+  <si>
+    <t>username(用户名)
+passwd(登入密码)</t>
+  </si>
+  <si>
+    <t>/admin/login
+username=admin&amp;passwd=123123</t>
+  </si>
+  <si>
+    <t>/admin/token</t>
+  </si>
+  <si>
+    <r>
+      <t>管理员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>令牌以旧换新( 重置有效期 )</t>
+    </r>
+  </si>
+  <si>
+    <t>/admin/token
+timestamp=1503393515&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUF1VnEQ5pEgggdmB3ZX5TE19_NTJlMEwDWQFzVFRSMlJ3BwwSW0oXUS15SAFIZE4PfA0IBnsFWBQZFUoRWE0QFxELBEoUVQRDF2pVV1ZRDzlRREZbBVQKBAcDD1ALAElGX1BGEmlVClcKW2ZZRRpbRAoEVVYbVgEbBwQZVA0DV1AJAwVEGhsGQgZUTV1VZwASGg5GUwZXDhsFDxRXChlUVQkCAlwGDEccQUBJXFBMBAJnVRBDDEQLBgQAFFUBFFdXEwABXAcAXwVRFxUaRVcKA1ZrFxVXFE1pQV5UABsDVFEDAgFQDw1TAB4&amp;sign=b3ec2bd21f3e191f0a680ab4e549dd36</t>
+  </si>
+  <si>
+    <t>/admin/reg</t>
+  </si>
+  <si>
+    <t>管理员新增其他管理员</t>
+  </si>
+  <si>
+    <t>/admin/reg
+username=newadmin&amp;passwd=222111&amp;timestamp=1503393515&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUF1VnEQ5pEgggdmB3ZX5TE19_NTJlMEwDWQFzVFRSMlJ3BwwSW0oXUS15SAFIZE4PfA0IBnsFWBQZFUoRWE0QFxELBEoUVQRDF2pVV1ZRDzlRREZbBVQKBAcDD1ALAElGX1BGEmlVClcKW2ZZRRpbRAoEVVYbVgEbBwQZVA0DV1AJAwVEGhsGQgZUTV1VZwASGg5GUwZXDhsFDxRXChlUVQkCAlwGDEccQUBJXFBMBAJnVRBDDEQLBgQAFFUBFFdXEwABXAcAXwVRFxUaRVcKA1ZrFxVXFE1pQV5UABsDVFEDAgFQDw1TAB4&amp;sign=b3ec2bd21f3e191f0a680ab4e549dd36</t>
+  </si>
+  <si>
+    <t>{"code":1,"data":"2000000013"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"SQLSTATE[23000]: Integrity constraint violation: 1062 Duplicate entry 'admin233' for key 'username'"}</t>
+  </si>
+  <si>
+    <t>/admin/setpasswd</t>
+  </si>
+  <si>
+    <t>管理员重置自己密码</t>
+  </si>
+  <si>
+    <t>passwd(新密码)
+oldpasswd(原密码)</t>
+  </si>
+  <si>
+    <t>/admin/setpasswd
+passwd=123123&amp;oldpasswd=333222&amp;timestamp=1503393515&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUF1VnEQ5pEgggdmB3ZX5TE19_NTJlMEwDWQFzVFRSMlJ3BwwSW0oXUS15SAFIZE4PfA0IBnsFWBQZFUoRWE0QFxELBEoUVQRDF2pVV1ZRDzlRREZbBVQKBAcDD1ALAElGX1BGEmlVClcKW2ZZRRpbRAoEVVYbVgEbBwQZVA0DV1AJAwVEGhsGQgZUTV1VZwASGg5GUwZXDhsFDxRXChlUVQkCAlwGDEccQUBJXFBMBAJnVRBDDEQLBgQAFFUBFFdXEwABXAcAXwVRFxUaRVcKA1ZrFxVXFE1pQV5UABsDVFEDAgFQDw1TAB4&amp;sign=b3ec2bd21f3e191f0a680ab4e549dd36</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"原密码错误"}</t>
   </si>
 </sst>
 </file>
@@ -220,12 +374,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,7 +397,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +422,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,8 +470,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +488,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,91 +546,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -395,13 +556,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,19 +706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,145 +730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,54 +747,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,20 +767,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +814,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,10 +855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,144 +867,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1197,17 +1373,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD12"/>
+  <dimension ref="A1:XFD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="46.25" customWidth="1"/>
     <col min="8" max="8" width="23.875" customWidth="1"/>
@@ -1250,7 +1426,7 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1281,22 +1457,22 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
@@ -1313,13 +1489,13 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H5" t="s">
@@ -1339,13 +1515,13 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
@@ -1365,13 +1541,13 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
@@ -1391,13 +1567,13 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H8" t="s">
@@ -1408,7 +1584,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="105" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1417,7 +1593,7 @@
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C11" t="s">
@@ -1426,7 +1602,7 @@
       <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H11" t="s">
@@ -1436,7 +1612,91 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="66" customHeight="1"/>
+    <row r="12" ht="76" customHeight="1" spans="1:7">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="75" customHeight="1" spans="1:9">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" ht="95" customHeight="1" spans="1:9">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" ht="75" customHeight="1" spans="1:9">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15"/>
+      <c r="G15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" ht="48" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A9:XFD9"/>
@@ -1450,14 +1710,168 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:XFD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="37.25" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="54" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="133" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="78" customHeight="1" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="105" customHeight="1" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1"/>
+    <row r="6" ht="66" customHeight="1" spans="1:9">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" ht="71" customHeight="1" spans="1:9">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" ht="93" customHeight="1" spans="1:9">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" ht="74" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:XFD4"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/App/yh/内部接口文档.xlsx
+++ b/App/yh/内部接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商户" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>接口地址</t>
   </si>
@@ -42,7 +42,18 @@
     <t>失败响应实例</t>
   </si>
   <si>
-    <t>接口域名 http://121.196.222.40/yh/</t>
+    <r>
+      <t xml:space="preserve">接口域名 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <charset val="134"/>
+      </rPr>
+      <t>http://121.196.222.40/yh/public</t>
+    </r>
   </si>
   <si>
     <t>所有接口访问频率在 30/60s</t>
@@ -200,12 +211,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>商户</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>令牌以旧换新( 重置有效期 )</t>
@@ -229,6 +247,9 @@
   </si>
   <si>
     <t>商户查询自己商户信息</t>
+  </si>
+  <si>
+    <t>图像字段直接拼接接口地址即可访问</t>
   </si>
   <si>
     <t>/merchant?
@@ -302,6 +323,58 @@
     <t>{"code":1,"data":"1"}</t>
   </si>
   <si>
+    <t>/application</t>
+  </si>
+  <si>
+    <t>商户新增一个应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">application_name(应用名称,可以重复)
+describe(描述)
+application_logo_file(logo上传图像文件)
+</t>
+  </si>
+  <si>
+    <t>{"code":1,"data":"100"}</t>
+  </si>
+  <si>
+    <t>商户查看所有应用</t>
+  </si>
+  <si>
+    <t>data中以数组形式返回所有当前商户的应用</t>
+  </si>
+  <si>
+    <t>/application?
+timestamp=1505311804&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUF1dzVHdADEQNYABSXAkWHmQbEQV8FApDY1VVJk90PS1pcn0BVFYCQzVAaF12DRQ_TlgwL1QMCxQZFUoAWksAEBELF0QaGxZEAkFMSxMCUEoaRAUYWwNXQhcNC0kbVQQXR25ZCVFQC28KRRsCBQ1UUwsNV1gPShtaVERNOlVWAg1dblQSFANHAlMEDhUBAUxXCxRWUwxWCAwHAxtJG1oXAVJFUAJpWBESWRcLCAAPTFYBGVVSFlQIDAEPA1EBG0lGRkFRB0JcAW8CQRsCEwpRVw8ZVFgbVwoWBwYDUQEDUVwRHRcSWVIAXjxGTVlDTD4SUVkBQwxXDAYABAhUCwFRGQ&amp;sign=128a9f0e93b7abe458b2d330dea30cb2</t>
+  </si>
+  <si>
+    <t>{"code":1,"data":[{"id":100,"merchant_id":100,"application_name":"应用一","describe":"1应用描述应用描述1","application_logo_file":"data\/upload\/201709\/13\/application_logo_file59b93b55024d1.jpg","created_at":"2017-09-13 22:06:13","modify_at":"0000-00-00 00:00:00"},{"id":101,"merchant_id":100,"application_name":"应用一","describe":"1应用描述应用描述1","application_logo_file":"data\/upload\/201709\/13\/application_logo_file59b93c5c39a0c.jpg","created_at":"2017-09-13 22:10:36","modify_at":"0000-00-00 00:00:00"},{"id":102,"merchant_id":100,"application_name":"应用2","describe":"1应用描述应用描述1","application_logo_file":"data\/upload\/201709\/13\/application_logo_file59b93c61db5ba.jpg","created_at":"2017-09-13 22:10:41","modify_at":"0000-00-00 00:00:00"},{"id":103,"merchant_id":100,"application_name":"应用4","describe":"1应用描述应用描述1","application_logo_file":"data\/upload\/201709\/13\/application_logo_file59b93c6447230.jpg","created_at":"2017-09-13 22:10:44","modify_at":"0000-00-00 00:00:00"}]}</t>
+  </si>
+  <si>
+    <t>商户修改指定的一个应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id(应用id)
+application_name(应用名称,可以重复)
+describe(描述)
+application_logo_file(logo上传图像文件)
+</t>
+  </si>
+  <si>
+    <t>商户删除一个应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id(应用id)
+</t>
+  </si>
+  <si>
+    <t>/application
+timestamp=1505311804&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUF1dzVHdADEQNYABSXAkWHmQbEQV8FApDY1VVJk90PS1pcn0BVFYCQzVAaF12DRQ_TlgwL1QMCxQZFUoAWksAEBELF0QaGxZEAkFMSxMCUEoaRAUYWwNXQhcNC0kbVQQXR25ZCVFQC28KRRsCBQ1UUwsNV1gPShtaVERNOlVWAg1dblQSFANHAlMEDhUBAUxXCxRWUwxWCAwHAxtJG1oXAVJFUAJpWBESWRcLCAAPTFYBGVVSFlQIDAEPA1EBG0lGRkFRB0JcAW8CQRsCEwpRVw8ZVFgbVwoWBwYDUQEDUVwRHRcSWVIAXjxGTVlDTD4SUVkBQwxXDAYABAhUCwFRGQ&amp;sign=128a9f0e93b7abe458b2d330dea30cb2</t>
+  </si>
+  <si>
+    <t>{code: 0, msg: "要删除的应用不存在"}</t>
+  </si>
+  <si>
     <t>/admin/login</t>
   </si>
   <si>
@@ -320,12 +393,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>管理员</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>令牌以旧换新( 重置有效期 )</t>
@@ -367,6 +447,66 @@
   </si>
   <si>
     <t>{"code":0,"msg":"原密码错误"}</t>
+  </si>
+  <si>
+    <t>/admin/merchant</t>
+  </si>
+  <si>
+    <t>管理员查看所有商户</t>
+  </si>
+  <si>
+    <t>data中以数组形式返回所有的商户</t>
+  </si>
+  <si>
+    <t>{"code":1,"data":[{"id":100,"merchant_name":"深圳测试公司1","merchant_website":"http:\/\/www.baidu.com\/","merchant_website_site_number":"京ICP证030173号-1","organization_file":"data\/upload\/201709\/13\/organization_file59b93a37edeef.jpg","license_file":"data\/upload\/201709\/13\/license_file59b93a849e833.jpg","license_code":"330521000062738","license_address":"深圳南山区某街道","license_range":"计算机软硬件开发销售，计算机、电子、生物、医药、汽车技术领域内的四技服务，生物工程及生物制品研制、开发、销售，整流器生产、开发，计算机网络工程 ，电脑网络软件开发","business_range":"计算机软硬件开发销售，计算机、电子、生物、医药、汽车技术领域内的四技服务","business_address":"深圳南山区某街道某写字楼18楼","corporation_name":"法人","corporation_country":"中国","corporation_sex":1,"corporation_identification_type":1,"corporation_identification_number":"123411198212131468","corporation_identification_validity":"2028-11-11 00:00:00","corporation_phone":"15536487596","authorizer_name":"授权人","authorizer_country":"意大利","authorizer_sex":1,"authorizer_identification_type":1,"authorizer_identification_number":"333411198212135552","authorizer_identification_validity":"2022-02-01 00:00:00","authorizer_phone":"15536482222","status":1,"created_at":"2017-09-13 22:01:27","modify_at":"2017-09-13 22:02:44","reviewe_at":"0000-00-00 00:00:00","admin_id":0}]}</t>
+  </si>
+  <si>
+    <t>审核指定商户</t>
+  </si>
+  <si>
+    <t>id(商户id)
+status(2.审核通过,3.审核不通过)</t>
+  </si>
+  <si>
+    <t>/admin/merchant
+id=100&amp;status=3&amp;timestamp=1503393515&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUF1VnEQ5pEgggdmB3ZX5TE19_NTJlMEwDWQFzVFRSMlJ3BwwSW0oXUS15SAFIZE4PfA0IBnsFWBQZFUoRWE0QFxELBEoUVQRDF2pVV1ZRDzlRREZbBVQKBAcDD1ALAElGX1BGEmlVClcKW2ZZRRpbRAoEVVYbVgEbBwQZVA0DV1AJAwVEGhsGQgZUTV1VZwASGg5GUwZXDhsFDxRXChlUVQkCAlwGDEccQUBJXFBMBAJnVRBDDEQLBgQAFFUBFFdXEwABXAcAXwVRFxUaRVcKA1ZrFxVXFE1pQV5UABsDVFEDAgFQDw1TAB4&amp;sign=b3ec2bd21f3e191f0a680ab4e549dd36</t>
+  </si>
+  <si>
+    <t>{code: 1, data: 1}</t>
+  </si>
+  <si>
+    <t>/admin/user</t>
+  </si>
+  <si>
+    <t>管理员查看所有用户</t>
+  </si>
+  <si>
+    <t>data中以数组形式返回所有的用户</t>
+  </si>
+  <si>
+    <t>{"code":1,"data":[{"id":1,"email":"admin@163.com","passwd":"$2y$10$1T62akHp47oLeIKuv6DzU.ZLnjXycsUlvAjF.m6dBi0XgPYhICF8q","secret":"","status":1,"payment":2,"last_login_ip":3232235814,"last_login_at":"2017-09-13 21:37:20","created_at":"2017-09-13 21:37:20","updated_at":"2017-09-13 21:37:20"},{"id":100,"email":"1771033392@qq.com","passwd":"$2y$10$fF2AyitnU9jm1wx\/udJr3uVblCvMXIZCHgbogsVuQeG5uYvlTNbj2","secret":"","status":1,"payment":2,"last_login_ip":455539399,"last_login_at":"2017-09-13 22:01:24","created_at":"2017-09-13 21:48:48","updated_at":"2017-09-13 22:01:24"}]}</t>
+  </si>
+  <si>
+    <t>用户登入的启用/禁用</t>
+  </si>
+  <si>
+    <t>id(商户id)
+status(1.启用,2.禁用)</t>
+  </si>
+  <si>
+    <t>/admin/user
+id=100&amp;status=1&amp;timestamp=1503393515&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUF1VnEQ5pEgggdmB3ZX5TE19_NTJlMEwDWQFzVFRSMlJ3BwwSW0oXUS15SAFIZE4PfA0IBnsFWBQZFUoRWE0QFxELBEoUVQRDF2pVV1ZRDzlRREZbBVQKBAcDD1ALAElGX1BGEmlVClcKW2ZZRRpbRAoEVVYbVgEbBwQZVA0DV1AJAwVEGhsGQgZUTV1VZwASGg5GUwZXDhsFDxRXChlUVQkCAlwGDEccQUBJXFBMBAJnVRBDDEQLBgQAFFUBFFdXEwABXAcAXwVRFxUaRVcKA1ZrFxVXFE1pQV5UABsDVFEDAgFQDw1TAB4&amp;sign=b3ec2bd21f3e191f0a680ab4e549dd36</t>
+  </si>
+  <si>
+    <t>用户支付的启用/禁用</t>
+  </si>
+  <si>
+    <t>id(商户id)
+payment(1.启用,2.禁用)</t>
+  </si>
+  <si>
+    <t>/admin/user
+id=100&amp;payment=2&amp;timestamp=1503393515&amp;token=QhpYXENcCQRUTRQDVFdcWxtfGwhSUwIBBlUFAFdwEkQXW15VQ0oaRAUSRRFdFA8VHVdAHVRUF1VnEQ5pEgggdmB3ZX5TE19_NTJlMEwDWQFzVFRSMlJ3BwwSW0oXUS15SAFIZE4PfA0IBnsFWBQZFUoRWE0QFxELBEoUVQRDF2pVV1ZRDzlRREZbBVQKBAcDD1ALAElGX1BGEmlVClcKW2ZZRRpbRAoEVVYbVgEbBwQZVA0DV1AJAwVEGhsGQgZUTV1VZwASGg5GUwZXDhsFDxRXChlUVQkCAlwGDEccQUBJXFBMBAJnVRBDDEQLBgQAFFUBFFdXEwABXAcAXwVRFxUaRVcKA1ZrFxVXFE1pQV5UABsDVFEDAgFQDw1TAB4&amp;sign=b3ec2bd21f3e191f0a680ab4e549dd36</t>
   </si>
 </sst>
 </file>
@@ -374,12 +514,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,9 +544,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,22 +671,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,103 +688,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -556,13 +710,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,169 +842,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,28 +904,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,17 +943,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,11 +961,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +990,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -855,10 +1009,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,137 +1021,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,9 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1373,15 +1524,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD16"/>
+  <dimension ref="A1:XFD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
     <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="4" max="4" width="36.625" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
@@ -1457,22 +1608,22 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
@@ -1489,13 +1640,13 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H5" t="s">
@@ -1515,13 +1666,13 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
@@ -1541,13 +1692,13 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
@@ -1567,13 +1718,13 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H8" t="s">
@@ -1593,7 +1744,7 @@
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C11" t="s">
@@ -1602,7 +1753,7 @@
       <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H11" t="s">
@@ -1622,8 +1773,11 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="E12" t="s">
         <v>61</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:9">
@@ -1631,25 +1785,25 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>63</v>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G13" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" ht="95" customHeight="1" spans="1:9">
@@ -1657,22 +1811,22 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:9">
@@ -1680,23 +1834,107 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15"/>
-      <c r="G15" s="7" t="s">
+    </row>
+    <row r="16" ht="48" customHeight="1" spans="1:9">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1" spans="1:9">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" ht="54" customHeight="1" spans="1:9">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1" spans="1:9">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" ht="48" customHeight="1"/>
+      <c r="D19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A9:XFD9"/>
@@ -1710,10 +1948,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD9"/>
+  <dimension ref="A1:XFD13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1770,25 +2008,25 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="78" customHeight="1" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1800,10 +2038,10 @@
     <row r="5" ht="42" customHeight="1"/>
     <row r="6" ht="66" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1811,8 +2049,8 @@
       <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>82</v>
+      <c r="G6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
@@ -1823,51 +2061,159 @@
     </row>
     <row r="7" ht="71" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>85</v>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="93" customHeight="1" spans="1:9">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" ht="74" customHeight="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" ht="74" customHeight="1" spans="1:9">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" ht="63" customHeight="1" spans="1:9">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" ht="54" customHeight="1" spans="1:9">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" ht="66" customHeight="1" spans="1:9">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" ht="69" customHeight="1" spans="1:9">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:XFD4"/>
